--- a/proj/financeiro.xlsx
+++ b/proj/financeiro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisson.ROSSET\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\alura-git\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857C7DDA-F76F-4BC3-9ABB-636715D36DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015B7055-0938-4EC1-801C-1DBF38323D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -34,29 +34,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Coleta</t>
   </si>
   <si>
-    <t>Mesada Mãe</t>
-  </si>
-  <si>
     <t>Conta de Luz</t>
   </si>
   <si>
-    <t>Compra Mês</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
     <t>Descrição</t>
   </si>
   <si>
-    <t>Gastos gerais</t>
-  </si>
-  <si>
     <t>Salário</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
     <t>VIP</t>
   </si>
   <si>
-    <t>Oculos</t>
-  </si>
-  <si>
     <t>Cabelo</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
   </si>
   <si>
     <t>Total gasto</t>
-  </si>
-  <si>
-    <t>Viagem Bahia</t>
   </si>
 </sst>
 </file>
@@ -274,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,11 +647,11 @@
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="13">
         <v>3160</v>
@@ -674,13 +659,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="15">
         <v>227</v>
@@ -694,25 +679,21 @@
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="14">
         <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>200</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3">
         <f>A14+D4</f>
-        <v>2915</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -720,14 +701,14 @@
         <v>250</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="20">
         <f>D2+D3-D5</f>
-        <v>472</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -735,46 +716,30 @@
         <v>100</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>200</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>250</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>600</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>400</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -785,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -801,10 +766,10 @@
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f>SUM($A$4:$A$12)</f>
-        <v>2115</v>
+        <v>465</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
